--- a/_output/1_RiskTakers_Male_vs_Female - Chi-Test__b1(1 ).csv__b1(2 ).csv_ (Edit).xlsx
+++ b/_output/1_RiskTakers_Male_vs_Female - Chi-Test__b1(1 ).csv__b1(2 ).csv_ (Edit).xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Candy\Documents\GitHub\OOTO Miner Python v2\_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427137D0-2F38-4465-A920-4699259A90A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5202513-24F9-4062-A6B9-CBFCCC53CCEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="852" windowWidth="22116" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2004" yWindow="1464" windowWidth="22104" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_RiskTakers_Male_vs_Female - C" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="143">
   <si>
     <t>Probability(0.05/0.01/0.001)</t>
   </si>
@@ -631,7 +639,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,6 +858,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,7 +1349,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1368,24 +1382,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1418,12 +1420,26 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1786,8 +1802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,8 +1831,8 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1825,21 +1842,21 @@
         <v>2</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29" t="s">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="34" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="R2" s="35"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1855,23 +1872,23 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="31"/>
+      <c r="J3" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="29"/>
       <c r="P3" s="25"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
@@ -1919,9 +1936,9 @@
       <c r="O4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="37"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -1969,10 +1986,10 @@
       <c r="O5" s="21">
         <v>0</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="33"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="31"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -2020,14 +2037,14 @@
       <c r="O6" s="5">
         <v>0</v>
       </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="43" t="s">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="47" t="s">
         <v>140</v>
       </c>
       <c r="T6" s="3"/>
@@ -2078,14 +2095,14 @@
       <c r="O7" s="5">
         <v>0</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39" t="s">
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S7" s="45"/>
+      <c r="S7" s="47"/>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -2134,14 +2151,14 @@
       <c r="O8" s="5">
         <v>0</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S8" s="45"/>
+      <c r="S8" s="47"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2190,14 +2207,14 @@
       <c r="O9" s="5">
         <v>0</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39" t="s">
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="45"/>
+      <c r="S9" s="47"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -2246,14 +2263,14 @@
       <c r="O10" s="5">
         <v>0</v>
       </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39" t="s">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S10" s="45"/>
+      <c r="S10" s="47"/>
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2302,14 +2319,14 @@
       <c r="O11" s="5">
         <v>0</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39" t="s">
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="40" t="s">
+      <c r="R11" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="S11" s="47" t="s">
+      <c r="S11" s="42" t="s">
         <v>142</v>
       </c>
       <c r="T11" s="3"/>
@@ -2360,14 +2377,14 @@
       <c r="O12" s="5">
         <v>0</v>
       </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="40" t="s">
+      <c r="P12" s="34"/>
+      <c r="Q12" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="S12" s="46" t="s">
+      <c r="S12" s="41" t="s">
         <v>141</v>
       </c>
       <c r="T12" s="3"/>
@@ -2418,14 +2435,14 @@
       <c r="O13" s="5">
         <v>0</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39" t="s">
+      <c r="P13" s="34"/>
+      <c r="Q13" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S13" s="45" t="s">
+      <c r="S13" s="47" t="s">
         <v>140</v>
       </c>
       <c r="T13" s="3"/>
@@ -2476,14 +2493,14 @@
       <c r="O14" s="5">
         <v>0</v>
       </c>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39" t="s">
+      <c r="P14" s="34"/>
+      <c r="Q14" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S14" s="45"/>
+      <c r="S14" s="47"/>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -2532,14 +2549,14 @@
       <c r="O15" s="5">
         <v>0</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39" t="s">
+      <c r="P15" s="34"/>
+      <c r="Q15" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S15" s="45"/>
+      <c r="S15" s="47"/>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2588,14 +2605,14 @@
       <c r="O16" s="5">
         <v>0</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39" t="s">
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="S16" s="47" t="s">
+      <c r="S16" s="42" t="s">
         <v>142</v>
       </c>
       <c r="T16" s="3"/>
@@ -2646,14 +2663,14 @@
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39" t="s">
+      <c r="P17" s="34"/>
+      <c r="Q17" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S17" s="46" t="s">
+      <c r="S17" s="41" t="s">
         <v>140</v>
       </c>
       <c r="T17" s="3"/>
@@ -2704,9 +2721,9 @@
       <c r="O18" s="15">
         <v>0</v>
       </c>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
@@ -3253,13 +3270,13 @@
       <c r="I30" s="16">
         <v>602</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="49">
         <v>0.53769999999999996</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="49">
         <v>0.46229999999999999</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="49">
         <v>0</v>
       </c>
       <c r="M30" s="17">
@@ -3300,13 +3317,13 @@
       <c r="I31" s="16">
         <v>602</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="48">
         <v>0.39950000000000002</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="48">
         <v>0.38440000000000002</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="48">
         <v>0.21609999999999999</v>
       </c>
       <c r="M31" s="17">
@@ -4219,7 +4236,9 @@
       <c r="B51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="16"/>
+      <c r="C51" s="16">
+        <v>0</v>
+      </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16">
         <v>1</v>
@@ -4262,7 +4281,9 @@
       <c r="B52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="16"/>
+      <c r="C52" s="16">
+        <v>0</v>
+      </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16">
         <v>1</v>
@@ -4305,7 +4326,9 @@
       <c r="B53" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="16"/>
+      <c r="C53" s="16">
+        <v>0</v>
+      </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16">
         <v>1</v>
@@ -4348,7 +4371,9 @@
       <c r="B54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="16"/>
+      <c r="C54" s="16">
+        <v>0</v>
+      </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16">
         <v>1</v>
@@ -4391,7 +4416,9 @@
       <c r="B55" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="16"/>
+      <c r="C55" s="16">
+        <v>0</v>
+      </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16">
         <v>1</v>
@@ -4434,7 +4461,9 @@
       <c r="B56" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="16"/>
+      <c r="C56" s="16">
+        <v>0</v>
+      </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16">
         <v>1</v>
@@ -4477,7 +4506,9 @@
       <c r="B57" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="16"/>
+      <c r="C57" s="16">
+        <v>0</v>
+      </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16">
         <v>1</v>
@@ -4520,7 +4551,9 @@
       <c r="B58" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="16"/>
+      <c r="C58" s="16">
+        <v>0</v>
+      </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16">
         <v>1</v>
@@ -4563,7 +4596,9 @@
       <c r="B59" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="16"/>
+      <c r="C59" s="16">
+        <v>0</v>
+      </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16">
         <v>1</v>
@@ -4606,7 +4641,9 @@
       <c r="B60" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="16"/>
+      <c r="C60" s="16">
+        <v>0</v>
+      </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16">
         <v>1</v>
@@ -4649,7 +4686,9 @@
       <c r="B61" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="16"/>
+      <c r="C61" s="16">
+        <v>0</v>
+      </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16">
         <v>1</v>

--- a/_output/1_RiskTakers_Male_vs_Female - Chi-Test__b1(1 ).csv__b1(2 ).csv_ (Edit).xlsx
+++ b/_output/1_RiskTakers_Male_vs_Female - Chi-Test__b1(1 ).csv__b1(2 ).csv_ (Edit).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Candy\Documents\GitHub\OOTO Miner Python v2\_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5202513-24F9-4062-A6B9-CBFCCC53CCEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F3B55B-EEA7-406D-A2F1-12DE6156613A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2004" yWindow="1464" windowWidth="22104" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_RiskTakers_Male_vs_Female - C" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="144">
   <si>
     <t>Probability(0.05/0.01/0.001)</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>OPPOSITE (UD)</t>
+  </si>
+  <si>
+    <t>GENDER</t>
   </si>
 </sst>
 </file>
@@ -868,7 +871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1304,6 +1307,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1349,7 +1404,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1423,6 +1478,8 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1438,8 +1495,21 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="40" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="38" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="38" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="37" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1802,15 +1872,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="1" customWidth="1"/>
     <col min="3" max="15" width="8.88671875" style="1"/>
     <col min="16" max="16" width="2.44140625" style="24" customWidth="1"/>
     <col min="17" max="18" width="5.33203125" style="24" customWidth="1"/>
@@ -1842,21 +1912,21 @@
         <v>2</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44" t="s">
+      <c r="J2" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="R2" s="46"/>
+      <c r="R2" s="48"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1872,20 +1942,20 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="29"/>
+      <c r="J3" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" s="51"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="28"/>
       <c r="R3" s="29"/>
@@ -1965,19 +2035,19 @@
       <c r="H5" s="19">
         <v>398</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="53">
         <v>602</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="55">
         <v>1</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
       </c>
-      <c r="L5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="58">
         <v>0</v>
       </c>
       <c r="N5" s="20">
@@ -2016,22 +2086,22 @@
       <c r="H6" s="1">
         <v>398</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="26">
         <v>602</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="56">
         <v>0.66830000000000001</v>
       </c>
       <c r="K6" s="2">
         <v>0.33169999999999999</v>
       </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="59">
         <v>0.80559999999999998</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="22">
         <v>0.19439999999999999</v>
       </c>
       <c r="O6" s="5">
@@ -2044,7 +2114,7 @@
       <c r="R6" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S6" s="47" t="s">
+      <c r="S6" s="49" t="s">
         <v>140</v>
       </c>
       <c r="T6" s="3"/>
@@ -2074,22 +2144,22 @@
       <c r="H7" s="1">
         <v>398</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="26">
         <v>602</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="56">
         <v>0.71109999999999995</v>
       </c>
       <c r="K7" s="2">
         <v>0.28889999999999999</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="59">
         <v>0.83889999999999998</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="22">
         <v>0.16109999999999999</v>
       </c>
       <c r="O7" s="5">
@@ -2102,7 +2172,7 @@
       <c r="R7" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S7" s="47"/>
+      <c r="S7" s="49"/>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -2130,22 +2200,22 @@
       <c r="H8" s="1">
         <v>394</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="26">
         <v>597</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="56">
         <v>0.88070000000000004</v>
       </c>
       <c r="K8" s="2">
         <v>0.1193</v>
       </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="22">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="59">
         <v>0.94810000000000005</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="22">
         <v>5.1900000000000002E-2</v>
       </c>
       <c r="O8" s="5">
@@ -2158,7 +2228,7 @@
       <c r="R8" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S8" s="47"/>
+      <c r="S8" s="49"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -2186,22 +2256,22 @@
       <c r="H9" s="1">
         <v>396</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="26">
         <v>599</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="56">
         <v>0.63129999999999997</v>
       </c>
       <c r="K9" s="2">
         <v>0.36870000000000003</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="59">
         <v>0.74460000000000004</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="22">
         <v>0.25540000000000002</v>
       </c>
       <c r="O9" s="5">
@@ -2214,7 +2284,7 @@
       <c r="R9" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="47"/>
+      <c r="S9" s="49"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -2242,22 +2312,22 @@
       <c r="H10" s="1">
         <v>393</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="26">
         <v>591</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="56">
         <v>0.88549999999999995</v>
       </c>
       <c r="K10" s="2">
         <v>0.1145</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="22">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="59">
         <v>0.94589999999999996</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="22">
         <v>5.4100000000000002E-2</v>
       </c>
       <c r="O10" s="5">
@@ -2270,7 +2340,7 @@
       <c r="R10" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S10" s="47"/>
+      <c r="S10" s="49"/>
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2298,22 +2368,22 @@
       <c r="H11" s="1">
         <v>398</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="26">
         <v>602</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="56">
         <v>0.80400000000000005</v>
       </c>
       <c r="K11" s="2">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="22">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="59">
         <v>0.8821</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="22">
         <v>0.1179</v>
       </c>
       <c r="O11" s="5">
@@ -2356,19 +2426,19 @@
       <c r="H12" s="1">
         <v>398</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="26">
         <v>602</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="56">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="52">
         <v>0.91959999999999997</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="59">
         <v>3.32E-2</v>
       </c>
       <c r="N12" s="22">
@@ -2414,22 +2484,22 @@
       <c r="H13" s="1">
         <v>395</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="26">
         <v>600</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="56">
         <v>0.61009999999999998</v>
       </c>
       <c r="K13" s="2">
         <v>0.38990000000000002</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="59">
         <v>0.70330000000000004</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="22">
         <v>0.29670000000000002</v>
       </c>
       <c r="O13" s="5">
@@ -2442,7 +2512,7 @@
       <c r="R13" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S13" s="47" t="s">
+      <c r="S13" s="49" t="s">
         <v>140</v>
       </c>
       <c r="T13" s="3"/>
@@ -2472,22 +2542,22 @@
       <c r="H14" s="1">
         <v>392</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="26">
         <v>597</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="56">
         <v>0.74490000000000001</v>
       </c>
       <c r="K14" s="2">
         <v>0.25509999999999999</v>
       </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="22">
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="59">
         <v>0.82410000000000005</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="22">
         <v>0.1759</v>
       </c>
       <c r="O14" s="5">
@@ -2500,7 +2570,7 @@
       <c r="R14" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S14" s="47"/>
+      <c r="S14" s="49"/>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -2528,22 +2598,22 @@
       <c r="H15" s="1">
         <v>396</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="26">
         <v>600</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="56">
         <v>0.60350000000000004</v>
       </c>
       <c r="K15" s="2">
         <v>0.39650000000000002</v>
       </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="59">
         <v>0.69330000000000003</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="22">
         <v>0.30669999999999997</v>
       </c>
       <c r="O15" s="5">
@@ -2556,7 +2626,7 @@
       <c r="R15" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="S15" s="47"/>
+      <c r="S15" s="49"/>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2584,19 +2654,19 @@
       <c r="H16" s="1">
         <v>393</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="26">
         <v>598</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="56">
         <v>0.5242</v>
       </c>
       <c r="K16" s="2">
         <v>0.4758</v>
       </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="59">
         <v>0.43309999999999998</v>
       </c>
       <c r="N16" s="22">
@@ -2642,22 +2712,22 @@
       <c r="H17" s="7">
         <v>394</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="54">
         <v>596</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="57">
         <v>0.89590000000000003</v>
       </c>
       <c r="K17" s="8">
         <v>0.1041</v>
       </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="23">
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="60">
         <v>0.94130000000000003</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="23">
         <v>5.8700000000000002E-2</v>
       </c>
       <c r="O17" s="9">
@@ -3270,13 +3340,13 @@
       <c r="I30" s="16">
         <v>602</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J30" s="44">
         <v>0.53769999999999996</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="44">
         <v>0.46229999999999999</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L30" s="44">
         <v>0</v>
       </c>
       <c r="M30" s="17">
@@ -3317,13 +3387,13 @@
       <c r="I31" s="16">
         <v>602</v>
       </c>
-      <c r="J31" s="48">
+      <c r="J31" s="43">
         <v>0.39950000000000002</v>
       </c>
-      <c r="K31" s="48">
+      <c r="K31" s="43">
         <v>0.38440000000000002</v>
       </c>
-      <c r="L31" s="48">
+      <c r="L31" s="43">
         <v>0.21609999999999999</v>
       </c>
       <c r="M31" s="17">
